--- a/Proyectos/2016/7/P1788 - TimbresEcodex, Ruben Acosta_MO/Compras/P1788 - TimbresEcodex, Ruben Acosta_MO.xlsx
+++ b/Proyectos/2016/7/P1788 - TimbresEcodex, Ruben Acosta_MO/Compras/P1788 - TimbresEcodex, Ruben Acosta_MO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
@@ -10,12 +10,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Deal</t>
   </si>
@@ -308,11 +308,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,57 +852,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -926,18 +881,63 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="3" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,7 +983,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1081,6 +1081,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1115,6 +1116,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1290,14 +1292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1311,162 +1313,162 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="42" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="46">
         <v>44400</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1479,175 +1481,175 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="42" t="s">
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="49">
         <v>42571</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="54" t="s">
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54" t="s">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="53" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="55"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="43" t="s">
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="60"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1662,7 +1664,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>51</v>
       </c>
@@ -1679,7 +1681,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" s="9" customFormat="1">
+    <row r="21" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>49</v>
       </c>
@@ -1698,7 +1700,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:16" s="9" customFormat="1">
+    <row r="22" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="27" t="s">
         <v>59</v>
@@ -1715,7 +1717,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1">
+    <row r="23" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="27" t="s">
         <v>60</v>
@@ -1732,7 +1734,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26"/>
       <c r="C24" s="23"/>
@@ -1743,37 +1745,37 @@
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="60" customHeight="1">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="57" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58" t="s">
+      <c r="G26" s="42"/>
+      <c r="H26" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="65" t="s">
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
-    </row>
-    <row r="27" spans="1:16" ht="87" customHeight="1">
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+    </row>
+    <row r="27" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>24</v>
       </c>
@@ -1823,12 +1825,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6">
@@ -1854,7 +1858,7 @@
         <v>618.75</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>0</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>0</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>0</v>
       </c>
@@ -1935,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>0</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>0</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>0</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>0</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>0</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>0</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>0</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>0</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>0</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>0</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15.75" thickBot="1">
+    <row r="42" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>0</v>
       </c>
@@ -2232,31 +2236,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
-      <c r="N43" s="39" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N43" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="39"/>
+      <c r="O43" s="53"/>
       <c r="P43" s="36">
         <f>+SUM(P28:P42)</f>
         <v>618.75</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="N44" s="39" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N44" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="39"/>
+      <c r="O44" s="53"/>
       <c r="P44" s="35">
         <f>+P43*0.16</f>
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
-      <c r="N45" s="39" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N45" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="39"/>
+      <c r="O45" s="53"/>
       <c r="P45" s="36">
         <f>+P43+P44</f>
         <v>717.75</v>
@@ -2264,6 +2268,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M18"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:M15"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:M6"/>
@@ -2280,17 +2295,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
@@ -2332,20 +2336,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>35</v>
       </c>
